--- a/data/georgia_census/adjara/qeda/healthcare_staff.xlsx
+++ b/data/georgia_census/adjara/qeda/healthcare_staff.xlsx
@@ -1376,13 +1376,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97A6CFEB-94CA-4928-97B1-F0B951F5BE68}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32AFC9E7-7101-4E03-A4C9-0C4488792385}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFDBFCAA-506D-43C6-963A-D4C7604DC722}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0BAD4FC-8DC1-4DE9-8173-C0A6EC4A4BBC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54396FAA-94D5-4BDC-9A0E-B8F45D9D0349}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B971CCD-8D60-445E-8B62-005D322FE764}"/>
 </file>